--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl20-Ccr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl20-Ccr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,10 +555,10 @@
         <v>0.4229</v>
       </c>
       <c r="O2">
-        <v>0.08574856428435433</v>
+        <v>0.09546040515030217</v>
       </c>
       <c r="P2">
-        <v>0.08574856428435433</v>
+        <v>0.09546040515030217</v>
       </c>
       <c r="Q2">
         <v>0.1285584047555555</v>
@@ -570,10 +567,10 @@
         <v>1.1570256428</v>
       </c>
       <c r="S2">
-        <v>0.08574856428435433</v>
+        <v>0.09546040515030217</v>
       </c>
       <c r="T2">
-        <v>0.08574856428435433</v>
+        <v>0.09546040515030217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,90 +611,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.7768443333333334</v>
+        <v>1.335736333333333</v>
       </c>
       <c r="N3">
-        <v>2.330533</v>
+        <v>4.007209</v>
       </c>
       <c r="O3">
-        <v>0.4725463673854556</v>
+        <v>0.9045395948496978</v>
       </c>
       <c r="P3">
-        <v>0.4725463673854555</v>
+        <v>0.9045395948496978</v>
       </c>
       <c r="Q3">
-        <v>0.7084644235284444</v>
+        <v>1.218161259309778</v>
       </c>
       <c r="R3">
-        <v>6.376179811756</v>
+        <v>10.963451333788</v>
       </c>
       <c r="S3">
-        <v>0.4725463673854556</v>
+        <v>0.9045395948496978</v>
       </c>
       <c r="T3">
-        <v>0.4725463673854555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.9119773333333333</v>
-      </c>
-      <c r="H4">
-        <v>2.735932</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.7261426666666666</v>
-      </c>
-      <c r="N4">
-        <v>2.178428</v>
-      </c>
-      <c r="O4">
-        <v>0.4417050683301902</v>
-      </c>
-      <c r="P4">
-        <v>0.4417050683301902</v>
-      </c>
-      <c r="Q4">
-        <v>0.6622256527662221</v>
-      </c>
-      <c r="R4">
-        <v>5.960030874896</v>
-      </c>
-      <c r="S4">
-        <v>0.4417050683301902</v>
-      </c>
-      <c r="T4">
-        <v>0.4417050683301902</v>
+        <v>0.9045395948496978</v>
       </c>
     </row>
   </sheetData>
